--- a/data/trans_orig/P14C28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C28-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{879F6138-AE56-41C5-B5BC-A104527C67AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{968F1AA9-6152-44D7-B9F2-EB7502F2EFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAF9CB20-78EB-45A4-81F7-327A6B44F619}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1786BF3-1FC3-4EBA-8339-6FCE83F82D72}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -131,52 +131,52 @@
     <t>54,27%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>37,32%</t>
+    <t>37,0%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>31,83%</t>
   </si>
   <si>
-    <t>70,61%</t>
+    <t>70,03%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>62,68%</t>
+    <t>63,0%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>65,22%</t>
+    <t>65,77%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -185,7 +185,7 @@
     <t>6,1%</t>
   </si>
   <si>
-    <t>30,86%</t>
+    <t>32,35%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -194,319 +194,319 @@
     <t>65,28%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
     <t>16,69%</t>
   </si>
   <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>33,19%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB431C-CAF7-4405-90BD-285411E12C8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDDA03E-7BF6-447A-BE54-62B875DD91FD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C28-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{968F1AA9-6152-44D7-B9F2-EB7502F2EFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC12AC6-AFF8-4163-B020-E7E22A57F543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1786BF3-1FC3-4EBA-8339-6FCE83F82D72}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B4FFB3B-B395-4D9F-86B5-8807BC2E27E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
-  <si>
-    <t>Población según el tiempo de diagnóstico del artritis en 2015 (Tasa respuesta: 6,06%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="155">
+  <si>
+    <t>Población según el tiempo de diagnóstico del artritis en 2016 (Tasa respuesta: 6,06%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -131,52 +131,49 @@
     <t>54,27%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>14,47%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>37,0%</t>
+    <t>37,32%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>31,83%</t>
   </si>
   <si>
-    <t>70,03%</t>
+    <t>85,39%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>63,0%</t>
+    <t>62,68%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>65,77%</t>
+    <t>64,63%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -185,7 +182,7 @@
     <t>6,1%</t>
   </si>
   <si>
-    <t>32,35%</t>
+    <t>25,83%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -194,55 +191,55 @@
     <t>65,28%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -251,100 +248,97 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>16,32%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -353,160 +347,157 @@
     <t>80,78%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>11,53%</t>
+    <t>11,45%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>9,16%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDDA03E-7BF6-447A-BE54-62B875DD91FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE4EC52-ACBF-4E7E-8503-5978E34926BE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1455,7 +1446,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1464,10 +1455,10 @@
         <v>6336</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>17</v>
@@ -1479,13 +1470,13 @@
         <v>9855</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,13 +1491,13 @@
         <v>2063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1515,13 +1506,13 @@
         <v>1953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1530,13 +1521,13 @@
         <v>4016</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1542,13 @@
         <v>901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1572,7 +1563,7 @@
         <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1581,13 +1572,13 @@
         <v>901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,7 +1634,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1655,13 +1646,13 @@
         <v>16294</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -1670,13 +1661,13 @@
         <v>26965</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -1685,13 +1676,13 @@
         <v>43258</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1697,13 @@
         <v>8666</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1721,13 +1712,13 @@
         <v>10856</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -1736,13 +1727,13 @@
         <v>19521</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1754,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1772,13 +1763,13 @@
         <v>3165</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1787,13 +1778,13 @@
         <v>3165</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,7 +1840,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1861,13 +1852,13 @@
         <v>13983</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -1876,13 +1867,13 @@
         <v>59134</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -1891,13 +1882,13 @@
         <v>73116</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1903,13 @@
         <v>7789</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -1927,13 +1918,13 @@
         <v>13855</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -1942,13 +1933,13 @@
         <v>21644</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1954,13 @@
         <v>1036</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -1978,13 +1969,13 @@
         <v>5188</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -1993,13 +1984,13 @@
         <v>6224</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2046,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2067,13 +2058,13 @@
         <v>48294</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>133</v>
@@ -2082,13 +2073,13 @@
         <v>156354</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>185</v>
@@ -2097,13 +2088,13 @@
         <v>204648</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2109,13 @@
         <v>9541</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -2133,13 +2124,13 @@
         <v>28339</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -2148,13 +2139,13 @@
         <v>37879</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2160,13 @@
         <v>1950</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2184,13 +2175,13 @@
         <v>6128</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2199,13 +2190,13 @@
         <v>8078</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2264,13 @@
         <v>83044</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>218</v>
@@ -2288,13 +2279,13 @@
         <v>248788</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>300</v>
@@ -2303,13 +2294,13 @@
         <v>331833</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2315,13 @@
         <v>28059</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -2339,13 +2330,13 @@
         <v>58395</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>80</v>
@@ -2354,13 +2345,13 @@
         <v>86455</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2366,13 @@
         <v>4942</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -2390,13 +2381,13 @@
         <v>15420</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -2405,13 +2396,13 @@
         <v>20363</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2458,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
